--- a/subnational_carbon_budget_assessments/media/data/Populations_USA.xlsx
+++ b/subnational_carbon_budget_assessments/media/data/Populations_USA.xlsx
@@ -2,16 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="18492" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21780" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -178,10 +183,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -204,14 +225,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -506,9 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
@@ -1892,7 +1923,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1905,7 +1941,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1918,6 +1958,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>